--- a/qa.xlsx
+++ b/qa.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10507"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hadartal/Personal/Dev/internet/ex2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\NLP\NLP_proj\crawler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75F34820-63D1-D644-B371-6C45514FD46A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2578BF7-275A-41D3-BB42-45BC4DBA7621}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="19420" windowHeight="10420" xr2:uid="{FE40923E-B6CD-43DC-ADCD-0AFB58BED0FB}"/>
+    <workbookView xWindow="3870" yWindow="1605" windowWidth="21600" windowHeight="11385" xr2:uid="{FE40923E-B6CD-43DC-ADCD-0AFB58BED0FB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -35,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
   <si>
     <t>Who is the president of China?</t>
   </si>
@@ -148,15 +146,6 @@
     <t>Nuuk</t>
   </si>
   <si>
-    <t xml:space="preserve"> Sierra leone</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Niue, Tonga</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Eswatini, Ethiopia</t>
-  </si>
-  <si>
     <t>Andorra la Vella</t>
   </si>
   <si>
@@ -175,15 +164,6 @@
     <t>List all countries whose capital name contains the string baba</t>
   </si>
   <si>
-    <t>How many  absolute monarchy are also Unitary?</t>
-  </si>
-  <si>
-    <t>How many dictatorship are also presidential?</t>
-  </si>
-  <si>
-    <t>How many dictatorship are also totalitarian?</t>
-  </si>
-  <si>
     <t xml:space="preserve">How many presidents were born in Iceland? </t>
   </si>
   <si>
@@ -241,24 +221,60 @@
     <t>President of Marshall Islands</t>
   </si>
   <si>
-    <t>Parliamentary, Semi-constitutional monarchy, Unitary state</t>
-  </si>
-  <si>
     <t>q</t>
   </si>
   <si>
     <t>a</t>
+  </si>
+  <si>
+    <t>Islamic state, Parliamentary, Semi-constitutional monarchy, Unitary state</t>
+  </si>
+  <si>
+    <t>Sierra Leone</t>
+  </si>
+  <si>
+    <t>Niue, Tonga</t>
+  </si>
+  <si>
+    <t>Eswatini, Ethiopia</t>
+  </si>
+  <si>
+    <t>How many Dictatorship are also Presidential system?</t>
+  </si>
+  <si>
+    <t>How many Dictatorship are also Authoritarian?</t>
+  </si>
+  <si>
+    <t>How many Absolute monarchy are also Unitary state?</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>How many presidents were born at 1950-02-21?</t>
+  </si>
+  <si>
+    <t>How many presidents were born at 2021-02-21?</t>
+  </si>
+  <si>
+    <t>How many presidents were born at 1968-06-14?</t>
+  </si>
+  <si>
+    <t>2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -268,10 +284,10 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri Light"/>
-      <family val="2"/>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FFA9B7C6"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -304,7 +320,7 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -325,7 +341,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ערכת נושא Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -621,27 +637,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB5DB2EA-CAFF-4333-A57B-FF15E41828F8}">
-  <dimension ref="A1:B42"/>
+  <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="50.33203125" customWidth="1"/>
+    <col min="1" max="1" width="50.375" customWidth="1"/>
     <col min="2" max="2" width="45.5" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -649,7 +666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" ht="15">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -657,7 +674,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" ht="15">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -665,7 +682,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" ht="15">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -673,7 +690,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" ht="15">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -681,7 +698,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" ht="15">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
@@ -689,7 +706,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" ht="15">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -697,7 +714,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" ht="15">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
@@ -705,7 +722,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" ht="15">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
@@ -713,7 +730,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" ht="15">
       <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
@@ -721,7 +738,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" ht="15">
       <c r="A12" s="1" t="s">
         <v>16</v>
       </c>
@@ -729,7 +746,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" ht="15">
       <c r="A13" s="1" t="s">
         <v>19</v>
       </c>
@@ -737,7 +754,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" ht="15">
       <c r="A14" s="1" t="s">
         <v>24</v>
       </c>
@@ -745,15 +762,15 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" ht="15">
       <c r="A15" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="15">
       <c r="A16" s="1" t="s">
         <v>27</v>
       </c>
@@ -761,7 +778,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" ht="15">
       <c r="A17" s="1" t="s">
         <v>29</v>
       </c>
@@ -769,7 +786,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" ht="15">
       <c r="A18" s="1" t="s">
         <v>31</v>
       </c>
@@ -777,23 +794,23 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" ht="15">
       <c r="A19" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15">
       <c r="A20" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15">
       <c r="A21" s="1" t="s">
         <v>35</v>
       </c>
@@ -801,152 +818,170 @@
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" ht="15">
       <c r="A22" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="15">
+      <c r="A23" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="15">
+      <c r="A24" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="15">
+      <c r="A25" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
+      <c r="B25" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="15">
+      <c r="A26" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B26" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="15">
+      <c r="A27" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B27" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="15">
+      <c r="A28" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B28" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="15">
+      <c r="A29" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B26" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B27" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B28" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="B29" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" ht="15">
       <c r="A30" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B30" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="15">
+      <c r="A31" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="15">
+      <c r="A32" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B30" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
+    </row>
+    <row r="33" spans="1:4" ht="15">
+      <c r="A33" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
+      <c r="B33" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="15">
+      <c r="A34" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="15">
+      <c r="A35" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="15">
+      <c r="A36" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B36" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
+    <row r="37" spans="1:4" ht="15">
+      <c r="A37" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B37" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="15">
+      <c r="A38" s="1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B34" s="1" t="s">
+      <c r="B38" s="1" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" s="5"/>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" s="5"/>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" s="5"/>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D38" s="5">
+        <v>18315</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="15">
+      <c r="A39" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="15">
+      <c r="A40" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="15">
+      <c r="A41" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="4"/>
     </row>
   </sheetData>
